--- a/TradeSimulation/MasterConfigData/ListTradePlan.xlsx
+++ b/TradeSimulation/MasterConfigData/ListTradePlan.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonDev\MyQuantFinProject\FinQuant\TradeSimulation\MasterConfigData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D3BC63-489B-4DC2-AD25-F05D82259FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF55895B-88AD-4D6D-A9FF-CD9824FB4E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test" sheetId="6" r:id="rId1"/>
-    <sheet name="Test2" sheetId="7" r:id="rId2"/>
+    <sheet name="July22-Now" sheetId="9" r:id="rId1"/>
+    <sheet name="OCT22-Now" sheetId="3" r:id="rId2"/>
     <sheet name="TestFundPhlips" sheetId="8" r:id="rId3"/>
     <sheet name="oct20-may22" sheetId="1" r:id="rId4"/>
     <sheet name="july22-sep22" sheetId="2" r:id="rId5"/>
-    <sheet name="nov22-now" sheetId="3" r:id="rId6"/>
-    <sheet name="bad_y22" sheetId="4" r:id="rId7"/>
-    <sheet name="accY22StartJuly22" sheetId="5" r:id="rId8"/>
+    <sheet name="bad_y22" sheetId="4" r:id="rId6"/>
+    <sheet name="accY22StartJuly22" sheetId="5" r:id="rId7"/>
+    <sheet name="TestDec20-April22" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="5">
   <si>
     <t>trade_date</t>
   </si>
@@ -148,6 +148,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>553007</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171607</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBAD3A96-ACCB-4582-BE28-66A7FFD4268B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2451100" y="857250"/>
+          <a:ext cx="10833657" cy="3048157"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -412,16 +461,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3732B275-F1F3-4F49-AB40-CD39949CEA2F}">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C85BB3-954E-4F1A-9BFC-CE88132FF9DC}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="1" max="1" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -436,30 +485,30 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>44166</v>
+      <c r="A2" s="1">
+        <v>44764</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>44201</v>
+      <c r="A3" s="1">
+        <v>44781</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>44211</v>
+      <c r="A4" s="1">
+        <v>44795</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -469,78 +518,88 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>44228</v>
+      <c r="A5" s="1">
+        <v>44831</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>44580</v>
+      <c r="A6" s="1">
+        <v>44854</v>
       </c>
       <c r="B6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>44602</v>
+      <c r="A7" s="1">
+        <v>44866</v>
       </c>
       <c r="B7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>44623</v>
+      <c r="A8" s="1">
+        <v>44890</v>
       </c>
       <c r="B8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>44680</v>
+      <c r="A9" s="1">
+        <v>44925</v>
       </c>
       <c r="B9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>44932</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249F368C-9AAE-4BFC-8736-3BB76BA1EC37}">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C860411-5B0D-493C-BD58-F002D40865C3}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" customWidth="1"/>
-    <col min="3" max="3" width="14.58203125" customWidth="1"/>
+    <col min="1" max="1" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -556,10 +615,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>44764</v>
+        <v>44854</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -567,10 +626,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>44778</v>
+        <v>44866</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -578,69 +637,39 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>44824</v>
+        <v>44890</v>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>44827</v>
+        <v>44925</v>
       </c>
       <c r="B5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>44851</v>
+        <v>44932</v>
       </c>
       <c r="B6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>44855</v>
-      </c>
-      <c r="B7">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>44908</v>
-      </c>
-      <c r="B8">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>44910</v>
-      </c>
-      <c r="B9">
-        <v>50</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -651,14 +680,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36390529-936D-4129-8AD0-CC38438E3B8F}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.4140625" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.4140625" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
     <col min="3" max="3" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1018,90 +1047,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C860411-5B0D-493C-BD58-F002D40865C3}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>44852</v>
-      </c>
-      <c r="B2">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>44861</v>
-      </c>
-      <c r="B3">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>44888</v>
-      </c>
-      <c r="B4">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>44908</v>
-      </c>
-      <c r="B5">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>44932</v>
-      </c>
-      <c r="B6">
-        <v>100</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3487C292-E5A0-45E9-AF14-1A764E537CD6}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -1218,7 +1163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED74781-8BCE-4E72-ACE9-B37CDB1FA202}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -1312,4 +1257,121 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3732B275-F1F3-4F49-AB40-CD39949CEA2F}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>44166</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>44228</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>44580</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>44623</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>44680</v>
+      </c>
+      <c r="B9">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>